--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cxcl12-Cxcr4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -95,9 +98,6 @@
   </si>
   <si>
     <t>Cxcr4</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T26"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H2">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I2">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J2">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N2">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O2">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P2">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q2">
-        <v>3652.945005177271</v>
+        <v>3717.194404912253</v>
       </c>
       <c r="R2">
-        <v>3652.945005177271</v>
+        <v>14868.77761964901</v>
       </c>
       <c r="S2">
-        <v>0.01169387339564282</v>
+        <v>0.01118403300172317</v>
       </c>
       <c r="T2">
-        <v>0.01169387339564282</v>
+        <v>0.005719022010459517</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H3">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I3">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J3">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N3">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O3">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P3">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q3">
-        <v>27530.82480496168</v>
+        <v>28298.0568010204</v>
       </c>
       <c r="R3">
-        <v>27530.82480496168</v>
+        <v>169788.3408061224</v>
       </c>
       <c r="S3">
-        <v>0.08813217261430453</v>
+        <v>0.08514120238882691</v>
       </c>
       <c r="T3">
-        <v>0.08813217261430453</v>
+        <v>0.06530619281751944</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H4">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I4">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J4">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N4">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O4">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P4">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q4">
-        <v>37916.00203427989</v>
+        <v>38096.75384692254</v>
       </c>
       <c r="R4">
-        <v>37916.00203427989</v>
+        <v>228580.5230815352</v>
       </c>
       <c r="S4">
-        <v>0.1213773891557089</v>
+        <v>0.1146228326717187</v>
       </c>
       <c r="T4">
-        <v>0.1213773891557089</v>
+        <v>0.08791960416020456</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H5">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I5">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J5">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N5">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O5">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P5">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q5">
-        <v>3342.883864583725</v>
+        <v>3444.65952784671</v>
       </c>
       <c r="R5">
-        <v>3342.883864583725</v>
+        <v>20667.95716708026</v>
       </c>
       <c r="S5">
-        <v>0.01070130008346026</v>
+        <v>0.01036404923784103</v>
       </c>
       <c r="T5">
-        <v>0.01070130008346026</v>
+        <v>0.007949577629943512</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>144.902657866288</v>
+        <v>145.002022</v>
       </c>
       <c r="H6">
-        <v>144.902657866288</v>
+        <v>290.004044</v>
       </c>
       <c r="I6">
-        <v>0.2455790922822413</v>
+        <v>0.2376076076529671</v>
       </c>
       <c r="J6">
-        <v>0.2455790922822413</v>
+        <v>0.1752271928451109</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N6">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O6">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P6">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q6">
-        <v>4271.610657404247</v>
+        <v>5416.069995109093</v>
       </c>
       <c r="R6">
-        <v>4271.610657404247</v>
+        <v>21664.27998043637</v>
       </c>
       <c r="S6">
-        <v>0.01367435703312478</v>
+        <v>0.01629549035285731</v>
       </c>
       <c r="T6">
-        <v>0.01367435703312478</v>
+        <v>0.008332796226983843</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H7">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I7">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J7">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N7">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O7">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P7">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q7">
-        <v>7154.160113179411</v>
+        <v>7587.43764330224</v>
       </c>
       <c r="R7">
-        <v>7154.160113179411</v>
+        <v>45524.62585981344</v>
       </c>
       <c r="S7">
-        <v>0.02290202630948666</v>
+        <v>0.02282854856584024</v>
       </c>
       <c r="T7">
-        <v>0.02290202630948666</v>
+        <v>0.01751027179034194</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H8">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I8">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J8">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N8">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O8">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P8">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q8">
-        <v>53918.12042706322</v>
+        <v>57761.23549541273</v>
       </c>
       <c r="R8">
-        <v>53918.12042706322</v>
+        <v>519851.1194587145</v>
       </c>
       <c r="S8">
-        <v>0.1726036589960934</v>
+        <v>0.1737879415581035</v>
       </c>
       <c r="T8">
-        <v>0.1726036589960934</v>
+        <v>0.1999518770404873</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H9">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I9">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J9">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N9">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O9">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P9">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q9">
-        <v>74257.11282825923</v>
+        <v>77762.07341853644</v>
       </c>
       <c r="R9">
-        <v>74257.11282825923</v>
+        <v>699858.660766828</v>
       </c>
       <c r="S9">
-        <v>0.2377132080852359</v>
+        <v>0.233965055539209</v>
       </c>
       <c r="T9">
-        <v>0.2377132080852359</v>
+        <v>0.2691887112392425</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H10">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I10">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J10">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N10">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O10">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P10">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q10">
-        <v>6546.916631129338</v>
+        <v>7031.146752885747</v>
       </c>
       <c r="R10">
-        <v>6546.916631129338</v>
+        <v>63280.32077597171</v>
       </c>
       <c r="S10">
-        <v>0.02095810752906192</v>
+        <v>0.02115481967268516</v>
       </c>
       <c r="T10">
-        <v>0.02095810752906192</v>
+        <v>0.02433969735807131</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
         <v>25</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s">
-        <v>24</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>283.78659238818</v>
+        <v>295.9742430000001</v>
       </c>
       <c r="H11">
-        <v>283.78659238818</v>
+        <v>887.9227290000001</v>
       </c>
       <c r="I11">
-        <v>0.4809577324997687</v>
+        <v>0.4849982837213674</v>
       </c>
       <c r="J11">
-        <v>0.4809577324997687</v>
+        <v>0.5365035780881736</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N11">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O11">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P11">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q11">
-        <v>8365.794322367721</v>
+        <v>11055.1369886237</v>
       </c>
       <c r="R11">
-        <v>8365.794322367721</v>
+        <v>66330.8219317422</v>
       </c>
       <c r="S11">
-        <v>0.02678073157989089</v>
+        <v>0.03326191838552944</v>
       </c>
       <c r="T11">
-        <v>0.02678073157989089</v>
+        <v>0.02551302066003051</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H12">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I12">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J12">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N12">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O12">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P12">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q12">
-        <v>17.73654542331652</v>
+        <v>4.634670078761333</v>
       </c>
       <c r="R12">
-        <v>17.73654542331652</v>
+        <v>27.808020472568</v>
       </c>
       <c r="S12">
-        <v>5.677854891392383E-05</v>
+        <v>1.394446926005994E-05</v>
       </c>
       <c r="T12">
-        <v>5.677854891392383E-05</v>
+        <v>1.069588134398902E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H13">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I13">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J13">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N13">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O13">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P13">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q13">
-        <v>133.6734399238171</v>
+        <v>35.282566058278</v>
       </c>
       <c r="R13">
-        <v>133.6734399238171</v>
+        <v>317.543094524502</v>
       </c>
       <c r="S13">
-        <v>0.0004279178253747969</v>
+        <v>0.0001061557024458542</v>
       </c>
       <c r="T13">
-        <v>0.0004279178253747969</v>
+        <v>0.0001221375417206571</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H14">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I14">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J14">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N14">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O14">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P14">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q14">
-        <v>184.0977324866492</v>
+        <v>47.49977158012955</v>
       </c>
       <c r="R14">
-        <v>184.0977324866492</v>
+        <v>427.4979442211661</v>
       </c>
       <c r="S14">
-        <v>0.0005893369796349628</v>
+        <v>0.0001429139708766515</v>
       </c>
       <c r="T14">
-        <v>0.0005893369796349628</v>
+        <v>0.000164429801491964</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H15">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I15">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J15">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N15">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O15">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P15">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q15">
-        <v>16.23107148479608</v>
+        <v>4.294868308241778</v>
       </c>
       <c r="R15">
-        <v>16.23107148479608</v>
+        <v>38.65381477417601</v>
       </c>
       <c r="S15">
-        <v>5.195919860546131E-05</v>
+        <v>1.292209759972587E-05</v>
       </c>
       <c r="T15">
-        <v>5.195919860546131E-05</v>
+        <v>1.486753135574545E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D16" t="s">
-        <v>24</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.7035618027542651</v>
+        <v>0.1807913333333333</v>
       </c>
       <c r="H16">
-        <v>0.7035618027542651</v>
+        <v>0.542374</v>
       </c>
       <c r="I16">
-        <v>0.001192387161347214</v>
+        <v>0.0002962537736040913</v>
       </c>
       <c r="J16">
-        <v>0.001192387161347214</v>
+        <v>0.0003277149938370313</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N16">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O16">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P16">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q16">
-        <v>20.74042076965149</v>
+        <v>6.752861114188</v>
       </c>
       <c r="R16">
-        <v>20.74042076965149</v>
+        <v>40.517166685128</v>
       </c>
       <c r="S16">
-        <v>6.639460881806938E-05</v>
+        <v>2.031753342179975E-05</v>
       </c>
       <c r="T16">
-        <v>6.639460881806938E-05</v>
+        <v>1.558423792467575E-05</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H17">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I17">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J17">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N17">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O17">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P17">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q17">
-        <v>3302.688551646872</v>
+        <v>18.938764487752</v>
       </c>
       <c r="R17">
-        <v>3302.688551646872</v>
+        <v>113.632586926512</v>
       </c>
       <c r="S17">
-        <v>0.0105726261231582</v>
+        <v>5.698162215109685E-05</v>
       </c>
       <c r="T17">
-        <v>0.0105726261231582</v>
+        <v>4.370683874371626E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H18">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I18">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J18">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N18">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O18">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P18">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q18">
-        <v>24891.07823191283</v>
+        <v>144.176003414652</v>
       </c>
       <c r="R18">
-        <v>24891.07823191283</v>
+        <v>1297.584030731868</v>
       </c>
       <c r="S18">
-        <v>0.07968176830269698</v>
+        <v>0.0004337866155493917</v>
       </c>
       <c r="T18">
-        <v>0.07968176830269698</v>
+        <v>0.0004990935920898862</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,61 @@
         <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H19">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I19">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J19">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N19">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O19">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P19">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q19">
-        <v>34280.49030723329</v>
+        <v>194.0994659577827</v>
       </c>
       <c r="R19">
-        <v>34280.49030723329</v>
+        <v>1746.895193620044</v>
       </c>
       <c r="S19">
-        <v>0.1097393234842563</v>
+        <v>0.0005839928172763752</v>
       </c>
       <c r="T19">
-        <v>0.1097393234842563</v>
+        <v>0.0006719134765373406</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1644,61 +1644,61 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H20">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I20">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J20">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N20">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O20">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P20">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q20">
-        <v>3022.357099107202</v>
+        <v>17.55022429070933</v>
       </c>
       <c r="R20">
-        <v>3022.357099107202</v>
+        <v>157.952018616384</v>
       </c>
       <c r="S20">
-        <v>0.009675224024257321</v>
+        <v>5.280388009719129E-05</v>
       </c>
       <c r="T20">
-        <v>0.009675224024257321</v>
+        <v>6.075355312798977E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1706,61 +1706,61 @@
         <v>23</v>
       </c>
       <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="C21" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>131.008911593228</v>
+        <v>0.738772</v>
       </c>
       <c r="H21">
-        <v>131.008911593228</v>
+        <v>2.216316</v>
       </c>
       <c r="I21">
-        <v>0.2220321563710563</v>
+        <v>0.001210588963518025</v>
       </c>
       <c r="J21">
-        <v>0.2220321563710563</v>
+        <v>0.00133914970902166</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>29.479173952392</v>
+        <v>37.351686</v>
       </c>
       <c r="N21">
-        <v>29.479173952392</v>
+        <v>74.703372</v>
       </c>
       <c r="O21">
-        <v>0.05568208965203356</v>
+        <v>0.06858151771241831</v>
       </c>
       <c r="P21">
-        <v>0.05568208965203356</v>
+        <v>0.04755424139191385</v>
       </c>
       <c r="Q21">
-        <v>3862.034494170313</v>
+        <v>27.594379769592</v>
       </c>
       <c r="R21">
-        <v>3862.034494170313</v>
+        <v>165.566278617552</v>
       </c>
       <c r="S21">
-        <v>0.01236321443668749</v>
+        <v>8.302402844396955E-05</v>
       </c>
       <c r="T21">
-        <v>0.01236321443668749</v>
+        <v>6.368224852272722E-05</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1768,61 +1768,61 @@
         <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D22" t="s">
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H22">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I22">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J22">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>25.2096480421229</v>
+        <v>25.635466</v>
       </c>
       <c r="N22">
-        <v>25.2096480421229</v>
+        <v>51.270932</v>
       </c>
       <c r="O22">
-        <v>0.04761754466541959</v>
+        <v>0.04706933886585728</v>
       </c>
       <c r="P22">
-        <v>0.04761754466541959</v>
+        <v>0.03263775397871465</v>
       </c>
       <c r="Q22">
-        <v>747.290646680488</v>
+        <v>3527.616502151235</v>
       </c>
       <c r="R22">
-        <v>747.290646680488</v>
+        <v>21165.69901290741</v>
       </c>
       <c r="S22">
-        <v>0.002392240288217972</v>
+        <v>0.01061364434567796</v>
       </c>
       <c r="T22">
-        <v>0.002392240288217972</v>
+        <v>0.008141025551529915</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1830,61 +1830,61 @@
         <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H23">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I23">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J23">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>189.995305885737</v>
+        <v>195.156291</v>
       </c>
       <c r="N23">
-        <v>189.995305885737</v>
+        <v>585.468873</v>
       </c>
       <c r="O23">
-        <v>0.3588749017486196</v>
+        <v>0.3583269207153423</v>
       </c>
       <c r="P23">
-        <v>0.3588749017486196</v>
+        <v>0.3726943960989305</v>
       </c>
       <c r="Q23">
-        <v>5632.038764062541</v>
+        <v>26854.84838193417</v>
       </c>
       <c r="R23">
-        <v>5632.038764062541</v>
+        <v>241693.6354374076</v>
       </c>
       <c r="S23">
-        <v>0.01802938401014989</v>
+        <v>0.08079897843462774</v>
       </c>
       <c r="T23">
-        <v>0.01802938401014989</v>
+        <v>0.0929633394360458</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1892,61 +1892,61 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H24">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I24">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J24">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>261.665331696453</v>
+        <v>262.7325696666667</v>
       </c>
       <c r="N24">
-        <v>261.665331696453</v>
+        <v>788.197709</v>
       </c>
       <c r="O24">
-        <v>0.4942496856214911</v>
+        <v>0.4824038834612092</v>
       </c>
       <c r="P24">
-        <v>0.4942496856214911</v>
+        <v>0.5017463484558564</v>
       </c>
       <c r="Q24">
-        <v>7756.55632361777</v>
+        <v>36153.80927379016</v>
       </c>
       <c r="R24">
-        <v>7756.55632361777</v>
+        <v>325384.2834641114</v>
       </c>
       <c r="S24">
-        <v>0.02483042791665494</v>
+        <v>0.1087770377362385</v>
       </c>
       <c r="T24">
-        <v>0.02483042791665494</v>
+        <v>0.1251535214656589</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1954,61 +1954,61 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>29.6430416415111</v>
+        <v>137.6068803333333</v>
       </c>
       <c r="H25">
-        <v>29.6430416415111</v>
+        <v>412.820641</v>
       </c>
       <c r="I25">
-        <v>0.05023863168558636</v>
+        <v>0.225489556501436</v>
       </c>
       <c r="J25">
-        <v>0.05023863168558636</v>
+        <v>0.2494358391462612</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>23.0698588542692</v>
+        <v>23.75594133333334</v>
       </c>
       <c r="N25">
-        <v>23.0698588542692</v>
+        <v>71.267824</v>
       </c>
       <c r="O25">
-        <v>0.04357577831243621</v>
+        <v>0.04361833924517278</v>
       </c>
       <c r="P25">
-        <v>0.04357577831243621</v>
+        <v>0.04536726007458447</v>
       </c>
       <c r="Q25">
-        <v>683.8607866808854</v>
+        <v>3268.980976261687</v>
       </c>
       <c r="R25">
-        <v>683.8607866808854</v>
+        <v>29420.82878635519</v>
       </c>
       <c r="S25">
-        <v>0.002189187477051245</v>
+        <v>0.009835479971723187</v>
       </c>
       <c r="T25">
-        <v>0.002189187477051245</v>
+        <v>0.01131622058647065</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2016,61 +2016,371 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" t="s">
-        <v>26</v>
-      </c>
-      <c r="D26" t="s">
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>137.6068803333333</v>
+      </c>
+      <c r="H26">
+        <v>412.820641</v>
+      </c>
+      <c r="I26">
+        <v>0.225489556501436</v>
+      </c>
+      <c r="J26">
+        <v>0.2494358391462612</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>37.351686</v>
+      </c>
+      <c r="N26">
+        <v>74.703372</v>
+      </c>
+      <c r="O26">
+        <v>0.06858151771241831</v>
+      </c>
+      <c r="P26">
+        <v>0.04755424139191385</v>
+      </c>
+      <c r="Q26">
+        <v>5139.848985650242</v>
+      </c>
+      <c r="R26">
+        <v>30839.09391390145</v>
+      </c>
+      <c r="S26">
+        <v>0.01546441601316858</v>
+      </c>
+      <c r="T26">
+        <v>0.0118617321065559</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>30.755622</v>
+      </c>
+      <c r="H27">
+        <v>61.511244</v>
+      </c>
+      <c r="I27">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J27">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>25.635466</v>
+      </c>
+      <c r="N27">
+        <v>51.270932</v>
+      </c>
+      <c r="O27">
+        <v>0.04706933886585728</v>
+      </c>
+      <c r="P27">
+        <v>0.03263775397871465</v>
+      </c>
+      <c r="Q27">
+        <v>788.434702089852</v>
+      </c>
+      <c r="R27">
+        <v>3153.738808359408</v>
+      </c>
+      <c r="S27">
+        <v>0.002372186861204758</v>
+      </c>
+      <c r="T27">
+        <v>0.001213031906295575</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>2</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>30.755622</v>
+      </c>
+      <c r="H28">
+        <v>61.511244</v>
+      </c>
+      <c r="I28">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J28">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>195.156291</v>
+      </c>
+      <c r="N28">
+        <v>585.468873</v>
+      </c>
+      <c r="O28">
+        <v>0.3583269207153423</v>
+      </c>
+      <c r="P28">
+        <v>0.3726943960989305</v>
+      </c>
+      <c r="Q28">
+        <v>6002.153116918003</v>
+      </c>
+      <c r="R28">
+        <v>36012.91870150801</v>
+      </c>
+      <c r="S28">
+        <v>0.01805885601578892</v>
+      </c>
+      <c r="T28">
+        <v>0.01385175567106742</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>2</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>30.755622</v>
+      </c>
+      <c r="H29">
+        <v>61.511244</v>
+      </c>
+      <c r="I29">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J29">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>262.7325696666667</v>
+      </c>
+      <c r="N29">
+        <v>788.197709</v>
+      </c>
+      <c r="O29">
+        <v>0.4824038834612092</v>
+      </c>
+      <c r="P29">
+        <v>0.5017463484558564</v>
+      </c>
+      <c r="Q29">
+        <v>8080.503599756666</v>
+      </c>
+      <c r="R29">
+        <v>48483.02159854</v>
+      </c>
+      <c r="S29">
+        <v>0.02431205072589008</v>
+      </c>
+      <c r="T29">
+        <v>0.01864816831272103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
         <v>24</v>
       </c>
-      <c r="E26">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="G26">
-        <v>29.6430416415111</v>
-      </c>
-      <c r="H26">
-        <v>29.6430416415111</v>
-      </c>
-      <c r="I26">
-        <v>0.05023863168558636</v>
-      </c>
-      <c r="J26">
-        <v>0.05023863168558636</v>
-      </c>
-      <c r="K26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>29.479173952392</v>
-      </c>
-      <c r="N26">
-        <v>29.479173952392</v>
-      </c>
-      <c r="O26">
-        <v>0.05568208965203356</v>
-      </c>
-      <c r="P26">
-        <v>0.05568208965203356</v>
-      </c>
-      <c r="Q26">
-        <v>873.8523810281054</v>
-      </c>
-      <c r="R26">
-        <v>873.8523810281054</v>
-      </c>
-      <c r="S26">
-        <v>0.002797391993512313</v>
-      </c>
-      <c r="T26">
-        <v>0.002797391993512313</v>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>30.755622</v>
+      </c>
+      <c r="H30">
+        <v>61.511244</v>
+      </c>
+      <c r="I30">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J30">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>23.75594133333334</v>
+      </c>
+      <c r="N30">
+        <v>71.267824</v>
+      </c>
+      <c r="O30">
+        <v>0.04361833924517278</v>
+      </c>
+      <c r="P30">
+        <v>0.04536726007458447</v>
+      </c>
+      <c r="Q30">
+        <v>730.6287519021761</v>
+      </c>
+      <c r="R30">
+        <v>4383.772511413056</v>
+      </c>
+      <c r="S30">
+        <v>0.002198264385226482</v>
+      </c>
+      <c r="T30">
+        <v>0.001686143415615256</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>30.755622</v>
+      </c>
+      <c r="H31">
+        <v>61.511244</v>
+      </c>
+      <c r="I31">
+        <v>0.05039770938710747</v>
+      </c>
+      <c r="J31">
+        <v>0.03716652521759548</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>37.351686</v>
+      </c>
+      <c r="N31">
+        <v>74.703372</v>
+      </c>
+      <c r="O31">
+        <v>0.06858151771241831</v>
+      </c>
+      <c r="P31">
+        <v>0.04755424139191385</v>
+      </c>
+      <c r="Q31">
+        <v>1148.774335678692</v>
+      </c>
+      <c r="R31">
+        <v>4595.097342714768</v>
+      </c>
+      <c r="S31">
+        <v>0.003456351398997222</v>
+      </c>
+      <c r="T31">
+        <v>0.001767425911896189</v>
       </c>
     </row>
   </sheetData>
